--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAN PEDRO V</t>
+          <t>Proyecto Inmobiliario San Pedro V</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>07/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154774780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157810956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Hijuela Sur</t>
+          <t>SAN PEDRO V</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Espinos S.A.</t>
+          <t>Inmobiliaria e Inversiones Malpo Ltda.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>19425</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154774780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Hijuela Norte</t>
+          <t>Parque Fotovoltaico Hijuela Sur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Alto Cautin SpA</t>
+          <t>Espinos S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Reliquia</t>
+          <t>Parque Fotovoltaico Hijuela Norte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SOLARES DEL MAULE SPA</t>
+          <t>Alto Cautin SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151181501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad Instalaciones Industriales Planta Acopio Parral</t>
+          <t>Parque Fotovoltaico Reliquia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>SOLARES DEL MAULE SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2200</v>
+        <v>8500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15/09/2020</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148238954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151181501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,40 +664,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Ampliación Capacidad Instalaciones Industriales Planta Acopio Parral</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>324020</v>
+        <v>2200</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>15/09/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148238954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,40 +712,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad Instalaciones Industriales Planta Acopio Parral</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2200</v>
+        <v>324020</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147592975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Copihue 6 MW</t>
+          <t>Ampliación Capacidad Instalaciones Industriales Planta Acopio Parral</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9000</v>
+        <v>2200</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147592975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Copihue</t>
+          <t>Planta Fotovoltaica Copihue 6 MW</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146014944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Planta Fotovoltaica Copihue</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146014944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Quinta PMG</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10656</v>
+        <v>25000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145235237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Parral</t>
+          <t>Parque Fotovoltaico La Quinta PMG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145235258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145235237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PLANTA PARRAL DE FRUTÍCOLA OLMUÉ SPA</t>
+          <t>Parque Fotovoltaico Parral</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Frutícola Olmué SpA</t>
+          <t>Solek Chile Holding SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>10656</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/12/2018</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142103725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145235258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROYECTO PARQUE SOLAR FOTOVOLTAICO FRANGEL</t>
+          <t>PLANTA PARRAL DE FRUTÍCOLA OLMUÉ SPA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Frangel SpA.</t>
+          <t>Frutícola Olmué SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/06/2018</t>
+          <t>20/12/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140811176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142103725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>PROYECTO PARQUE SOLAR FOTOVOLTAICO FRANGEL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Frangel SpA.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>13000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>22/06/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140811176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>9903</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10000</v>
+        <v>37</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,30 +1480,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Embalse Digua</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Eléctrica Digua SpA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131476196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SE PASO HONDO, TAP OFF Y LÍNEA DE TRANSMISIÓN</t>
+          <t>Proyecto Hidroeléctrico Embalse Digua</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LUZPARRAL S.A.</t>
+          <t>Eléctrica Digua SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8365</v>
+        <v>30000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130467742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131476196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN, SE TAP OFF Y SE PASO HONDO</t>
+          <t>SE PASO HONDO, TAP OFF Y LÍNEA DE TRANSMISIÓN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,21 +1595,21 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8350</v>
+        <v>8365</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130467742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Parral</t>
+          <t>LÍNEA DE TRANSMISIÓN, SE TAP OFF Y SE PASO HONDO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>LUZPARRAL S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1600</v>
+        <v>8350</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/02/2015</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130252996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Parral</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>23/02/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130252996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Minicentral de Biomasa La Gloria</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Consulting &amp; Energy Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>8503</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129896349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Adicional Perquilauquén</t>
+          <t>Minicentral de Biomasa La Gloria</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Energía de la Patagonia y Aysén</t>
+          <t>Consulting &amp; Energy Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>11000</v>
+        <v>8503</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/09/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129767028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129896349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/08/2014</t>
+          <t>23/09/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129729735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129767028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sistema de Transmisión Adicional Perquilauquén</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Energía de la Patagonia y Aysén</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>22/08/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129729735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROYECTO CULTIVO CATFISH - MODIFICACIONES PROYECTO TÉCNICO - CENTRO LA CASONA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Acuícola Alas S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129479792&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[Proyecto Cultivo Catfish] Modificaciones Proyecto Técnico - Centro La Casona</t>
+          <t>PROYECTO CULTIVO CATFISH - MODIFICACIONES PROYECTO TÉCNICO - CENTRO LA CASONA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,21 +2459,21 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129479792&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>[Proyecto Cultivo Catfish] Modificaciones Proyecto Técnico - Centro La Casona</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Acuícola Alas S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,30 +2680,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Portal Alameda IV, Parral</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones MALPO Limitada</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>955</v>
+        <v>140400</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>26/09/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128515753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PROYECTO CENTRAL HIDROELÉCTRICA DE PASADA PERQUILAUQUÉN</t>
+          <t>Portal Alameda IV, Parral</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Empresa Electrica Perquilauquen SpA</t>
+          <t>Inmobiliaria e Inversiones MALPO Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>48000</v>
+        <v>955</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>25/06/2013</t>
+          <t>26/09/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8279548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128515753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO CENTRAL HIDROELÉCTRICA DE PASADA PERQUILAUQUÉN</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Empresa Electrica Perquilauquen SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>25/06/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8279548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Proyecto central hidroeléctrica de pasada Perquilauquén</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa Electrica Perquilauquen SpA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>48000</v>
+        <v>2475</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/01/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7787667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,40 +3208,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Embalse Bullileo .</t>
+          <t>Proyecto central hidroeléctrica de pasada Perquilauquén</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Bullileo SpA</t>
+          <t>Empresa Electrica Perquilauquen SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>11500</v>
+        <v>48000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>31/08/2012</t>
+          <t>21/01/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7275101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7787667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,30 +3256,30 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
+          <t>Central Hidroeléctrica Embalse Bullileo .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Bullileo SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>40000</v>
+        <v>11500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>31/08/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7275101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,21 +4043,21 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Generación de Respaldo Peumo (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Río Cautín S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>45000</v>
+        <v>1750</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3153839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Generación de Respaldo Peumo (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Río Cautín S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>45000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3153839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6015,17 +6015,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,10 +6232,14 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -6243,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,14 +6280,10 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,25 +6531,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,25 +6579,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,25 +6627,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,25 +6675,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,25 +6723,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,25 +6771,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,15 +6867,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,25 +6915,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,21 +6967,21 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,25 +7011,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,17 +7067,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Parral (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,16 +7102,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Parral</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900587&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Plan Regulador Comunal de Parral (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,12 +7150,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ilustre Municipalidad de Parral</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7163,17 +7163,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900587&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,25 +7203,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Loteo Don Matias (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7246,20 +7246,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Constructora e Inmobiliaria Independencia Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>8388</v>
+        <v>200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>24/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1822174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Loteo Don Matias (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7294,30 +7294,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Constructora e Inmobiliaria Independencia Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>8388</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>24/11/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1822174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7347,25 +7347,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7395,25 +7395,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,25 +7443,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,25 +7491,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,25 +7539,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PROYECTO CULTIVO CATFISH (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7582,20 +7582,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Acuícola Alas S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1500</v>
+        <v>80</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1572410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>PROYECTO CULTIVO CATFISH (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7630,30 +7630,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Acuícola Alas S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>80</v>
+        <v>1500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1572410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,25 +7683,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,15 +7731,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>500</v>
+        <v>142</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,17 +7787,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,25 +7827,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7883,17 +7883,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,25 +7923,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,25 +7971,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,25 +8019,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,25 +8067,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>3517</v>
+        <v>72</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,15 +8115,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,15 +8163,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,15 +8211,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8259,11 +8259,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,11 +8307,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,15 +8403,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8459,17 +8459,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,15 +8499,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,30 +8542,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,20 +8590,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cementerio Parque Reina Luisa de Parral (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,20 +8638,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Parques de Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>308</v>
+        <v>1</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=423556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Cementerio Parque Reina Luisa de Parral (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,20 +8686,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Parques de Chile S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=423556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,15 +8739,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Estación de Servicios Sargento Santiago Urrutía (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,20 +8782,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>80</v>
+        <v>6600</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Diseño Instalación del Servicio de Agua Potable Rural Localidad de Villa Reina</t>
+          <t>Estación de Servicios Sargento Santiago Urrutía (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,15 +8835,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>02/07/2002</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5549&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Parral (e-seia)</t>
+          <t>Diseño Instalación del Servicio de Agua Potable Rural Localidad de Villa Reina</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,15 +8883,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2170</v>
+        <v>210</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>02/07/2002</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=15440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5549&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Parral (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,30 +8926,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>6590</v>
+        <v>2170</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=15440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Lloimavida Explotación de Minerales de Zeolita a Rajo Abierto</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,30 +8974,30 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Cesar Formas Ortiz</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1500</v>
+        <v>6590</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>14/02/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Lloimavida Explotación de Minerales de Zeolita a Rajo Abierto</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,30 +9022,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cesar Formas Ortiz</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>14/02/2002</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Explotación Mina a Rajo Abierto</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,30 +9070,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Serrin Tercera Uno al Veinte de Parral</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>8900</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Agua Potable Rural localidad de Bajos de Huenutil</t>
+          <t>Explotación Mina a Rajo Abierto</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Legal Minera Serrin Tercera Uno al Veinte de Parral</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>160</v>
+        <v>8900</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>28/02/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Alcantarillado y Tratamiento Aguas Servidas Escuela F-574 Palma Rosa</t>
+          <t>Construcción de Sistema de Agua Potable Rural localidad de Bajos de Huenutil</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,15 +9171,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Parral</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>26/10/2000</t>
+          <t>28/02/2001</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Alcantarillado y Tratamiento de Aguas Servidas Escuela F-568 El Libertador Sector Remulcao</t>
+          <t>Alcantarillado y Tratamiento Aguas Servidas Escuela F-574 Palma Rosa</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>19/10/2000</t>
+          <t>26/10/2000</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Molienda Mineral No Metálico-Zeolita</t>
+          <t>Alcantarillado y Tratamiento de Aguas Servidas Escuela F-568 El Libertador Sector Remulcao</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,15 +9267,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Sociedad Maderas Bravo Limitada</t>
+          <t>I. Municipalidad de Parral</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>21/09/2000</t>
+          <t>19/10/2000</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Catillo</t>
+          <t>Molienda Mineral No Metálico-Zeolita</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Parral</t>
+          <t>Sociedad Maderas Bravo Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>27/03/2000</t>
+          <t>21/09/2000</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Catillo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,20 +9358,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>I. Municipalidad de Parral</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>27/03/2000</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2500</v>
+        <v>110</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,43 +9444,91 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Parral</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F190" t="n">
+      <c r="F191" t="n">
         <v>850000</v>
       </c>
-      <c r="G190" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr">
+      <c r="I191" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J190" t="inlineStr">
+      <c r="J191" t="inlineStr">
         <is>
           <t>Parral</t>
         </is>

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F176" t="n">

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J191"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario San Pedro V</t>
+          <t>Parque Solar Parral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Malpo Ltda.</t>
+          <t>PARRAL SOLAR SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>19425</v>
+        <v>200000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2022</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157810956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159532959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAN PEDRO V</t>
+          <t>Proyecto Inmobiliario San Pedro V</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154774780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157810956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Hijuela Sur</t>
+          <t>SAN PEDRO V</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Espinos S.A.</t>
+          <t>Inmobiliaria e Inversiones Malpo Ltda.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>19425</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154774780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Hijuela Norte</t>
+          <t>Parque Fotovoltaico Hijuela Sur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alto Cautin SpA</t>
+          <t>Espinos S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Reliquia</t>
+          <t>Parque Fotovoltaico Hijuela Norte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SOLARES DEL MAULE SPA</t>
+          <t>Alto Cautin SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151181501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151800118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad Instalaciones Industriales Planta Acopio Parral</t>
+          <t>Parque Fotovoltaico Reliquia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>SOLARES DEL MAULE SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2200</v>
+        <v>8500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/09/2020</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148238954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151181501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,40 +712,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Ampliación Capacidad Instalaciones Industriales Planta Acopio Parral</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>324020</v>
+        <v>2200</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>15/09/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148238954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,40 +760,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad Instalaciones Industriales Planta Acopio Parral</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2200</v>
+        <v>324020</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147592975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Copihue 6 MW</t>
+          <t>Ampliación Capacidad Instalaciones Industriales Planta Acopio Parral</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GR Quelat SpA</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9000</v>
+        <v>2200</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147592975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Copihue</t>
+          <t>Planta Fotovoltaica Copihue 6 MW</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146014944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Planta Fotovoltaica Copihue</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146014944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Quinta PMG</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10656</v>
+        <v>25000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145235237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Parral</t>
+          <t>Parque Fotovoltaico La Quinta PMG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145235258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145235237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PLANTA PARRAL DE FRUTÍCOLA OLMUÉ SPA</t>
+          <t>Parque Fotovoltaico Parral</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Frutícola Olmué SpA</t>
+          <t>Solek Chile Holding SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>10656</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/12/2018</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142103725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145235258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROYECTO PARQUE SOLAR FOTOVOLTAICO FRANGEL</t>
+          <t>PLANTA PARRAL DE FRUTÍCOLA OLMUÉ SPA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Frangel SpA.</t>
+          <t>Frutícola Olmué SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/06/2018</t>
+          <t>20/12/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140811176&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142103725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>PROYECTO PARQUE SOLAR FOTOVOLTAICO FRANGEL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Frangel SpA.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>13000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>22/06/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140811176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>42</v>
+        <v>9903</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>20000</v>
+        <v>42</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10000</v>
+        <v>37</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,30 +1528,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Embalse Digua</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Eléctrica Digua SpA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131476196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SE PASO HONDO, TAP OFF Y LÍNEA DE TRANSMISIÓN</t>
+          <t>Proyecto Hidroeléctrico Embalse Digua</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LUZPARRAL S.A.</t>
+          <t>Eléctrica Digua SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8365</v>
+        <v>30000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130467742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131476196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN, SE TAP OFF Y SE PASO HONDO</t>
+          <t>SE PASO HONDO, TAP OFF Y LÍNEA DE TRANSMISIÓN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,21 +1643,21 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8350</v>
+        <v>8365</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130467742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Parral</t>
+          <t>LÍNEA DE TRANSMISIÓN, SE TAP OFF Y SE PASO HONDO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>LUZPARRAL S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1600</v>
+        <v>8350</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/02/2015</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130252996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130402334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Parral</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>23/02/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130252996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,11 +1927,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Minicentral de Biomasa La Gloria</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Consulting &amp; Energy Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>8503</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129896349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Adicional Perquilauquén</t>
+          <t>Minicentral de Biomasa La Gloria</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Energía de la Patagonia y Aysén</t>
+          <t>Consulting &amp; Energy Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>11000</v>
+        <v>8503</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/09/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129767028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129896349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/08/2014</t>
+          <t>23/09/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129729735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129767028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sistema de Transmisión Adicional Perquilauquén</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Energía de la Patagonia y Aysén</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>22/08/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129729735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PROYECTO CULTIVO CATFISH - MODIFICACIONES PROYECTO TÉCNICO - CENTRO LA CASONA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Acuícola Alas S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129479792&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[Proyecto Cultivo Catfish] Modificaciones Proyecto Técnico - Centro La Casona</t>
+          <t>PROYECTO CULTIVO CATFISH - MODIFICACIONES PROYECTO TÉCNICO - CENTRO LA CASONA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,21 +2507,21 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129479792&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>[Proyecto Cultivo Catfish] Modificaciones Proyecto Técnico - Centro La Casona</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Acuícola Alas S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,12 +2680,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,30 +2728,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Portal Alameda IV, Parral</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones MALPO Limitada</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>955</v>
+        <v>140400</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>26/09/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128515753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PROYECTO CENTRAL HIDROELÉCTRICA DE PASADA PERQUILAUQUÉN</t>
+          <t>Portal Alameda IV, Parral</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Empresa Electrica Perquilauquen SpA</t>
+          <t>Inmobiliaria e Inversiones MALPO Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>48000</v>
+        <v>955</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>25/06/2013</t>
+          <t>26/09/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8279548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128515753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO CENTRAL HIDROELÉCTRICA DE PASADA PERQUILAUQUÉN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Empresa Electrica Perquilauquen SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>25/06/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8279548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Proyecto central hidroeléctrica de pasada Perquilauquén</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa Electrica Perquilauquen SpA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>48000</v>
+        <v>2475</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21/01/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7787667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,40 +3256,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Embalse Bullileo .</t>
+          <t>Proyecto central hidroeléctrica de pasada Perquilauquén</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Bullileo SpA</t>
+          <t>Empresa Electrica Perquilauquen SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>11500</v>
+        <v>48000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/08/2012</t>
+          <t>21/01/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7275101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7787667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,30 +3304,30 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
+          <t>Central Hidroeléctrica Embalse Bullileo .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Bullileo SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>40000</v>
+        <v>11500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>31/08/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7275101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,21 +4091,21 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Generación de Respaldo Peumo (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Río Cautín S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>45000</v>
+        <v>1750</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3153839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Generación de Respaldo Peumo (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Río Cautín S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>45000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3153839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6063,17 +6063,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,10 +6280,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -6291,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,14 +6328,10 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,25 +6579,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,25 +6627,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,25 +6675,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,25 +6723,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,25 +6771,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,25 +6819,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,15 +6915,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,25 +6963,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,21 +7015,21 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,25 +7059,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,17 +7115,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Parral (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,16 +7150,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Parral</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7168,12 +7168,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900587&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Plan Regulador Comunal de Parral (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7198,12 +7198,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ilustre Municipalidad de Parral</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -7211,17 +7211,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900587&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,25 +7251,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Loteo Don Matias (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7294,20 +7294,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Constructora e Inmobiliaria Independencia Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>8388</v>
+        <v>200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>24/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1822174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Loteo Don Matias (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7342,30 +7342,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Constructora e Inmobiliaria Independencia Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>8388</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>24/11/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1822174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7395,25 +7395,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,25 +7443,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,25 +7491,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,25 +7539,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,25 +7587,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PROYECTO CULTIVO CATFISH (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7630,20 +7630,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Acuícola Alas S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1500</v>
+        <v>80</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1572410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>PROYECTO CULTIVO CATFISH (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7678,30 +7678,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Acuícola Alas S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>80</v>
+        <v>1500</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1572410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,25 +7731,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,15 +7779,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>500</v>
+        <v>142</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,17 +7835,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,25 +7875,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,17 +7931,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,25 +7971,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,25 +8019,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,25 +8067,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,25 +8115,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>3517</v>
+        <v>72</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,15 +8163,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,15 +8211,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,15 +8259,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8307,11 +8307,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,11 +8355,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,15 +8451,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8507,17 +8507,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,15 +8547,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,30 +8590,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,20 +8638,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cementerio Parque Reina Luisa de Parral (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,20 +8686,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Parques de Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>308</v>
+        <v>1</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=423556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Cementerio Parque Reina Luisa de Parral (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,20 +8734,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Parques de Chile S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=423556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Estación de Servicios Sargento Santiago Urrutía (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,20 +8830,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>80</v>
+        <v>6600</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Diseño Instalación del Servicio de Agua Potable Rural Localidad de Villa Reina</t>
+          <t>Estación de Servicios Sargento Santiago Urrutía (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,15 +8883,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>02/07/2002</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5549&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Parral (e-seia)</t>
+          <t>Diseño Instalación del Servicio de Agua Potable Rural Localidad de Villa Reina</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,15 +8931,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2170</v>
+        <v>210</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>02/07/2002</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=15440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5549&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Parral (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,30 +8974,30 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>6590</v>
+        <v>2170</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=15440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Lloimavida Explotación de Minerales de Zeolita a Rajo Abierto</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,30 +9022,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Cesar Formas Ortiz</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1500</v>
+        <v>6590</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>14/02/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Lloimavida Explotación de Minerales de Zeolita a Rajo Abierto</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,30 +9070,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cesar Formas Ortiz</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>14/02/2002</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Explotación Mina a Rajo Abierto</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9118,30 +9118,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Serrin Tercera Uno al Veinte de Parral</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>8900</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Agua Potable Rural localidad de Bajos de Huenutil</t>
+          <t>Explotación Mina a Rajo Abierto</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,15 +9171,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Legal Minera Serrin Tercera Uno al Veinte de Parral</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>160</v>
+        <v>8900</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>28/02/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Alcantarillado y Tratamiento Aguas Servidas Escuela F-574 Palma Rosa</t>
+          <t>Construcción de Sistema de Agua Potable Rural localidad de Bajos de Huenutil</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,15 +9219,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Parral</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>26/10/2000</t>
+          <t>28/02/2001</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Alcantarillado y Tratamiento de Aguas Servidas Escuela F-568 El Libertador Sector Remulcao</t>
+          <t>Alcantarillado y Tratamiento Aguas Servidas Escuela F-574 Palma Rosa</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>19/10/2000</t>
+          <t>26/10/2000</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Molienda Mineral No Metálico-Zeolita</t>
+          <t>Alcantarillado y Tratamiento de Aguas Servidas Escuela F-568 El Libertador Sector Remulcao</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Sociedad Maderas Bravo Limitada</t>
+          <t>I. Municipalidad de Parral</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>21/09/2000</t>
+          <t>19/10/2000</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Catillo</t>
+          <t>Molienda Mineral No Metálico-Zeolita</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Parral</t>
+          <t>Sociedad Maderas Bravo Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>27/03/2000</t>
+          <t>21/09/2000</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Catillo</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,20 +9406,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>I. Municipalidad de Parral</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>27/03/2000</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2500</v>
+        <v>110</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,43 +9492,91 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Parral</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F191" t="n">
+      <c r="F192" t="n">
         <v>850000</v>
       </c>
-      <c r="G191" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr">
+      <c r="I192" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>Parral</t>
         </is>

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>20/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Parral.xlsx
+++ b/data/Parral.xlsx
@@ -8835,7 +8835,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F177" t="n">
